--- a/Test.xlsx
+++ b/Test.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Madhava</t>
+  </si>
+  <si>
+    <t>Reddy</t>
   </si>
 </sst>
 </file>
@@ -350,17 +353,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
